--- a/biology/Zoologie/Grimpar_fauvette/Grimpar_fauvette.xlsx
+++ b/biology/Zoologie/Grimpar_fauvette/Grimpar_fauvette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sittasomus griseicapillus
 Le Grimpar fauvette (Sittasomus griseicapillus) est une espèce de passereaux de la sous-famille des Dendrocolaptinae, seule représentante du genre Sittasomus.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit du sud du Mexique au nord de l'Argentine en passant par l'Amérique centrale et le nord de l'Amérique du Sud et également sur Tobago. On le trouve dans l'ensemble du bassin amazonien, sauf dans sa partie la plus basse, et une grande partie des Guyanes adjacentes.
 </t>
@@ -543,7 +557,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est le seul membre du genre Sittasomus, mais le taxon comprend plusieurs formes distinctes vocalement et morphologiquement de sorte que cette espèce pourrait être divisée en plusieurs espèces à l'avenir.
 </t>
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce petit grimpar est un oiseau mince, mesurant 15 cm de long et d'un poids de 13g. La tête, le haut du dos et le ventre sont gris olive, les ailes, la queue et le bas du dos sont roux clair. Le bec est court et mince. Le cri est un trille rapide, aigu wu-wu-wu-we-we-we-we-ee-ee-ee-ee-we-we-we-we.
 </t>
@@ -605,7 +623,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Grimpar fauvette est commun et largement répandu dans les forêts et autres terres boisées.
 </t>
@@ -636,7 +656,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit d'insectes et d'araignées. Il les cherche sur des troncs d'arbres ou de grosses branches ou sur le sol, généralement seul. Toutefois, il peut s'associer à des groupes de tamarins-lions dorés (Leontopithecus rosalia) pour se nourrir des proies surprises par les singes. Il peut aussi parfois capturer des proies en vol comme les termites et parfois se joindre à d'autres espèces pour se nourrir en bandes, ceci dans certains lieux (par exemple, dans la Serra de Paranapiacaba du Brésil) mai ils forment une espèce de base de ces bandes.
 </t>
@@ -667,7 +689,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Il construit un nid bordé de feuilles mortes dans un trou d'arbre, et y pond trois œufs blancs.
 </t>
@@ -698,7 +722,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>On en distingue 20 sous-espèces[réf. nécessaire]:
 Sittasomus griseicapillus griseicapillus
